--- a/doc/Java1조_테스트케이스_1차.xlsx
+++ b/doc/Java1조_테스트케이스_1차.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkw22\Desktop\코딩\BootCamp\Java-Boot-Camp\프로젝트\NBCStudentManager\NBCStudentManager\NBCStudentManager\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADC106F8-AE5D-4113-9990-4BA484157468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6BAE42-AC0B-45EF-8B95-6A39EBD7150E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA54855B-D5B1-4C05-A9A8-D64933F3C9D7}"/>
   </bookViews>
@@ -46,14 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수강생 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강생 목록 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Depth1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수강생 상태 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>존재하지 않는 수강생 고유번호를 입력한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수강생의 과목별 시험 회차 및 점수 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시험 점수 등록 단계로 넘어간다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,10 +250,6 @@
   </si>
   <si>
     <t>학생의 상태가 입력한 상태로 변경된다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강생의 과목별 회차 점수 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -342,10 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수강생의 과목별 회차별 등급 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>과목 이름을 입력하는 페이지로 넘어간다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,14 +390,6 @@
   </si>
   <si>
     <t>파일을 생성하지 않고, 빈 내용을 가져온다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생  &amp; 점수 정보 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생 &amp; 점수 정보 불러오기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -432,6 +400,46 @@
   <si>
     <t>데이터를 불러오고, 
 학생 고유번호 시작 위치를 갱신시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강생 등록
+( 안예환님 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강생 목록 조회
+( 이시우님 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강생 상태 변경
+( 안예환님 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강생의 과목별 시험 회차 및 점수 등록
+( 박지민님 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강생의 과목별 회차 점수 수정
+( 오현택님 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강생의 과목별 회차별 등급 조회
+( 김건우님 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생  &amp; 점수 정보 저장
+( 김건우님 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 &amp; 점수 정보 불러오기
+( 김건우님 )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -973,21 +981,87 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1015,36 +1089,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1057,53 +1104,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1441,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED5C421-21BF-403D-85BA-EC5A22002529}">
   <dimension ref="B1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1456,44 +1464,44 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60" t="s">
+      <c r="J3" s="22"/>
+      <c r="K3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="15" t="s">
-        <v>8</v>
-      </c>
       <c r="L3" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="24.75" customHeight="1">
@@ -1501,843 +1509,843 @@
         <v>1</v>
       </c>
       <c r="C4" s="36"/>
-      <c r="D4" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32" t="s">
+      <c r="D4" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="24.75" customHeight="1">
       <c r="B5" s="37"/>
       <c r="C5" s="38"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="33" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="L5" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="2:14" ht="24.75" customHeight="1">
       <c r="B6" s="37"/>
       <c r="C6" s="38"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="33" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33" t="s">
+      <c r="L6" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="2:14" ht="24.75" customHeight="1">
       <c r="B7" s="37"/>
       <c r="C7" s="38"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="33" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L7" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="2:14" ht="24.75" customHeight="1">
       <c r="B8" s="37"/>
       <c r="C8" s="38"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L8" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="24.75" customHeight="1" thickBot="1">
       <c r="B9" s="37"/>
       <c r="C9" s="38"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="21" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="34"/>
+      <c r="K9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="L9" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="24.75" customHeight="1">
       <c r="B10" s="37"/>
       <c r="C10" s="38"/>
-      <c r="D10" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="45" t="s">
+      <c r="D10" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="L10" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="24.75" customHeight="1" thickBot="1">
       <c r="B11" s="37"/>
       <c r="C11" s="38"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="31" t="s">
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="30"/>
+      <c r="K11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="L11" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="24.75" customHeight="1">
       <c r="B12" s="37"/>
       <c r="C12" s="38"/>
-      <c r="D12" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="32"/>
+      <c r="D12" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="23"/>
       <c r="K12" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="24.75" customHeight="1">
       <c r="B13" s="37"/>
       <c r="C13" s="38"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="33"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="17"/>
       <c r="K13" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="24.75" customHeight="1">
       <c r="B14" s="37"/>
       <c r="C14" s="38"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="33"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="17"/>
       <c r="K14" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="24.75" customHeight="1" thickBot="1">
       <c r="B15" s="39"/>
       <c r="C15" s="40"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="21"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="34"/>
       <c r="K15" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="24.75" customHeight="1">
       <c r="B16" s="35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="36"/>
-      <c r="D16" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="32"/>
+      <c r="D16" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="23"/>
       <c r="K16" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="24.75" customHeight="1">
       <c r="B17" s="37"/>
       <c r="C17" s="38"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="33"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="17"/>
       <c r="K17" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="24.75" customHeight="1">
       <c r="B18" s="37"/>
       <c r="C18" s="38"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="33"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="17"/>
       <c r="K18" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="24.75" customHeight="1">
       <c r="B19" s="37"/>
       <c r="C19" s="38"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="33"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="17"/>
       <c r="K19" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="24.75" customHeight="1">
       <c r="B20" s="37"/>
       <c r="C20" s="38"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" s="33"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="17"/>
       <c r="K20" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="24.75" customHeight="1" thickBot="1">
       <c r="B21" s="37"/>
       <c r="C21" s="38"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="21"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="34"/>
       <c r="K21" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="24.75" customHeight="1">
       <c r="B22" s="37"/>
       <c r="C22" s="38"/>
-      <c r="D22" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="32"/>
+      <c r="D22" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="23"/>
       <c r="K22" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="48.75" customHeight="1">
       <c r="B23" s="37"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="33"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="17"/>
       <c r="K23" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="24.75" customHeight="1">
       <c r="B24" s="37"/>
       <c r="C24" s="38"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J24" s="33"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="17"/>
       <c r="K24" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="24.75" customHeight="1">
       <c r="B25" s="37"/>
       <c r="C25" s="38"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="33"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="17"/>
       <c r="K25" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="24.75" customHeight="1">
       <c r="B26" s="37"/>
       <c r="C26" s="38"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" s="33"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="17"/>
       <c r="K26" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="24.75" customHeight="1">
       <c r="B27" s="37"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="J27" s="33"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="17"/>
       <c r="K27" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="24.75" customHeight="1">
       <c r="B28" s="37"/>
       <c r="C28" s="38"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="J28" s="33"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="17"/>
       <c r="K28" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="24.75" customHeight="1" thickBot="1">
       <c r="B29" s="37"/>
       <c r="C29" s="38"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="J29" s="21"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="34"/>
       <c r="K29" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="24.75" customHeight="1">
       <c r="B30" s="37"/>
       <c r="C30" s="38"/>
-      <c r="D30" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="J30" s="45"/>
+      <c r="D30" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="29"/>
       <c r="K30" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="24.75" customHeight="1">
       <c r="B31" s="37"/>
       <c r="C31" s="38"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="J31" s="33"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="17"/>
       <c r="K31" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="24.75" customHeight="1">
       <c r="B32" s="37"/>
       <c r="C32" s="38"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J32" s="33"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="17"/>
       <c r="K32" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="24.75" customHeight="1">
       <c r="B33" s="37"/>
       <c r="C33" s="38"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="J33" s="33"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J33" s="17"/>
       <c r="K33" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="24.75" customHeight="1">
       <c r="B34" s="37"/>
       <c r="C34" s="38"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J34" s="33"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="17"/>
       <c r="K34" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="24.75" customHeight="1">
       <c r="B35" s="37"/>
       <c r="C35" s="38"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" s="33"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="17"/>
       <c r="K35" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="24.75" customHeight="1">
       <c r="B36" s="37"/>
       <c r="C36" s="38"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="J36" s="33"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J36" s="17"/>
       <c r="K36" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="24.75" customHeight="1" thickBot="1">
       <c r="B37" s="39"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="31" t="s">
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="30"/>
+      <c r="K37" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="J37" s="31"/>
-      <c r="K37" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="L37" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="45"/>
+      <c r="D38" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="41"/>
+      <c r="F38" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" s="23"/>
+      <c r="K38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="24.75" customHeight="1">
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="32" t="s">
+      <c r="J39" s="17"/>
+      <c r="K39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="24.75" customHeight="1" thickBot="1">
+      <c r="B40" s="46"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32" t="s">
+      <c r="J40" s="30"/>
+      <c r="K40" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="48" customHeight="1">
+      <c r="B41" s="46"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="J38" s="32"/>
-      <c r="K38" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33" t="s">
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="J41" s="23"/>
+      <c r="K41" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="24.75" customHeight="1" thickBot="1">
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="51"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J39" s="33"/>
-      <c r="K39" s="3" t="s">
+      <c r="J42" s="34"/>
+      <c r="K42" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="L39" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="J40" s="31"/>
-      <c r="K40" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="48" customHeight="1">
-      <c r="B41" s="24"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="J41" s="32"/>
-      <c r="K41" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="L42" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="24.75" customHeight="1"/>
@@ -2345,17 +2353,71 @@
     <row r="45" spans="2:12" ht="24.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B38:C42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="D38:E40"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B16:C37"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D22:E29"/>
+    <mergeCell ref="D30:E37"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="D16:E21"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="F14:H14"/>
@@ -2372,73 +2434,19 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="B4:C15"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
     <mergeCell ref="D12:E15"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="D16:E21"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B16:C37"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="D22:E29"/>
-    <mergeCell ref="D30:E37"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="B38:C42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="D38:E40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
